--- a/data/income_statement/3digits/total/462_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/462_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>462-Wholesale of agricultural raw materials and live animals</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>462-Wholesale of agricultural raw materials and live animals</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>18416352.6144</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>25557271.27809</v>
+        <v>25557297.27832</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>30899826.6673</v>
+        <v>30899934.84968</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>35025379.41707</v>
+        <v>35029895.13174</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>43903367.8009</v>
+        <v>43946597.81956</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>55704439.63919</v>
+        <v>55887875.30242</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>56966749.34784999</v>
+        <v>59647213.25531</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>63782353.94868001</v>
+        <v>70197771.43451001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>89190011.90079999</v>
+        <v>89190011.9008</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>92452928.61672999</v>
+        <v>92646294.91303</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>114947016.74783</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>116620159.73928</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>150440796.31</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>14555502.42486</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>19270153.11556</v>
+        <v>19270179.11579</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>25503829.23391</v>
+        <v>25503936.39501</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>28718300.19428</v>
+        <v>28722812.6899</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>34900585.45733</v>
+        <v>34937380.15738</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>45023639.75925</v>
+        <v>45207038.34431999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>46565387.42503</v>
+        <v>48321556.63694999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>51866286.5099</v>
+        <v>55756449.25398999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>74108173.5165</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>76475837.10770999</v>
+        <v>76662341.57765</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>94696584.24799001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>96139127.76992001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>128066149.215</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>2668244.68624</v>
@@ -1037,34 +953,39 @@
         <v>4171041.61356</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>5445997.51175</v>
+        <v>5445997.511749999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>7926852.62057</v>
+        <v>7933240.96905</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>9529128.98446</v>
+        <v>9529128.984460002</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>9009025.021440001</v>
+        <v>9932244.32189</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>9217749.3584</v>
+        <v>11653581.91334</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>13750742.64567</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>14724791.20953</v>
+        <v>14731492.34857</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>18620946.54912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>18838368.28976</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>20568028.077</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1192605.5033</v>
@@ -1073,37 +994,42 @@
         <v>2616755.18386</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1224955.81983</v>
+        <v>1224956.84111</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>861081.7110400001</v>
+        <v>861084.9300899999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1075929.723</v>
+        <v>1075976.69313</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1151670.89548</v>
+        <v>1151707.97364</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1392336.90138</v>
+        <v>1393412.29647</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2698318.08038</v>
+        <v>2787740.26718</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1331095.73863</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1252300.29949</v>
+        <v>1252460.98681</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1629485.95072</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1642663.6796</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1806619.018</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>205423.92412</v>
@@ -1118,31 +1044,36 @@
         <v>295046.56812</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>342834.9429199999</v>
+        <v>342880.51949</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2561516.641</v>
+        <v>2561655.4322</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>499479.8774300001</v>
+        <v>519209.45441</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2668444.18163</v>
+        <v>2796020.91151</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>7518434.039809999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3395339.80495</v>
+        <v>3395567.51906</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>5736324.617190001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>5740662.181399999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>7948299.212</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>105959.90697</v>
@@ -1157,31 +1088,36 @@
         <v>134464.27089</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>162576.54796</v>
+        <v>162622.12453</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2370794.37264</v>
+        <v>2370929.59412</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>262066.10166</v>
+        <v>276500.95451</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2423232.91748</v>
+        <v>2473097.11996</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>7187834.09129</v>
+        <v>7187834.091289999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>2804823.20271</v>
+        <v>2804924.31613</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>4949016.02947</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4953095.339029999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>6810557.348</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>59481.60677</v>
@@ -1190,7 +1126,7 @@
         <v>76258.28082</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>95149.95001999999</v>
+        <v>95149.95002</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>102764.45803</v>
@@ -1199,52 +1135,57 @@
         <v>138313.80985</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>133905.60106</v>
+        <v>133909.17078</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>170142.86842</v>
+        <v>170850.23758</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>143234.74098</v>
+        <v>173896.29923</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>225023.22136</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>410149.9721900001</v>
+        <v>410276.57288</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>634729.5065700001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>634978.4712200001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>933302.8689999999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>39982.41037999999</v>
+        <v>39982.41038</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>36373.6234</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>41946.21419</v>
+        <v>41946.21418999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>57817.8392</v>
+        <v>57817.83919999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>41944.58511</v>
+        <v>41944.58511000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>56816.66729999999</v>
+        <v>56816.6673</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>67270.90734999999</v>
+        <v>71858.26231999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>101976.52317</v>
+        <v>149027.49232</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>105576.72716</v>
@@ -1253,52 +1194,62 @@
         <v>180366.63005</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>152579.08115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>152588.37115</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>204438.995</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>18210928.69028</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>25342923.22376</v>
+        <v>25342949.22399</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>30638746.82759</v>
+        <v>30638855.00997</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>34730332.84895</v>
+        <v>34734848.56362</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>43560532.85798</v>
+        <v>43603717.30007001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>53142922.99819</v>
+        <v>53326219.87022</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>56467269.47042</v>
+        <v>59128003.8009</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>61113909.76705001</v>
+        <v>67401750.523</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>81671577.86099</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>89057588.81178001</v>
+        <v>89250727.39397</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>109210692.13064</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>110879497.55788</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>142492497.098</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>16552132.2852</v>
@@ -1307,76 +1258,86 @@
         <v>23234266.38285</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>27952737.83808</v>
+        <v>27952776.43856</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>32106180.38011</v>
+        <v>32110344.6128</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>40239991.58891</v>
+        <v>40280380.22796001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>49272053.31061</v>
+        <v>49447149.93005</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>52140223.46721</v>
+        <v>54553513.82335</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>56618704.73738</v>
+        <v>62152612.03207</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>75797917.36256</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>81911914.35872</v>
+        <v>82102074.74394</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>101366720.54296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>102928460.66546</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>133120669.438</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2675947.34201</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4119270.76685</v>
+        <v>4119270.766849999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3889574.655799999</v>
+        <v>3889613.25628</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>4724504.20017</v>
+        <v>4725707.78532</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>5259847.59053</v>
+        <v>5263921.023309999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>6738878.14641</v>
+        <v>6742703.90678</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>7355670.83333</v>
+        <v>8030427.229359999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>7443126.82867</v>
+        <v>9707459.643900001</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>12114203.86462</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>10443973.3566</v>
+        <v>10447852.23892</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>11951246.90067</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>11817238.10101</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>15197633.296</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>13439411.50546</v>
@@ -1388,34 +1349,39 @@
         <v>23259796.13924</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>26619349.40145</v>
+        <v>26622060.26435</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>34090549.30032</v>
+        <v>34125755.05525</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>41613772.77811</v>
+        <v>41780316.22517</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>43892991.0597</v>
+        <v>45609297.38369</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>48513388.10954</v>
+        <v>51337754.17857</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>62235243.94574001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>69827822.74506</v>
+        <v>70003824.79918</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>87618647.49298002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>89292218.67178001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>115550843.718</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>149892.51404</v>
@@ -1424,37 +1390,42 @@
         <v>207617.50362</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>324020.43006</v>
+        <v>324020.4300599999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>355821.20271</v>
+        <v>356070.98735</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>422417.4421</v>
+        <v>423492.39634</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>413265.33179</v>
+        <v>415904.43599</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>386795.37158</v>
+        <v>390663.30409</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>505300.25708</v>
+        <v>509565.95922</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>664934.79813</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>736405.3309399999</v>
+        <v>746559.77972</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>820914.7257599999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>838676.3724700001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1019231.774</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>286880.92369</v>
@@ -1469,109 +1440,124 @@
         <v>406505.57578</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>467177.25596</v>
+        <v>467211.7530600001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>506137.0543</v>
+        <v>508225.3621099999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>504766.2026</v>
+        <v>523125.90621</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>156889.54209</v>
+        <v>597832.25038</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>783534.7540699999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>903712.9261200001</v>
+        <v>903837.92612</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>975911.4235500001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>980327.5202</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1352960.65</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1658796.40508</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2108656.84091</v>
+        <v>2108682.84114</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2686008.98951</v>
+        <v>2686078.57141</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2624152.46884</v>
+        <v>2624503.95082</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3320541.26907</v>
+        <v>3323337.07211</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3870869.68758</v>
+        <v>3879069.94017</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>4327046.00321</v>
+        <v>4574489.97755</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>4495205.02967</v>
+        <v>5249138.49093</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>5873660.498430001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>7145674.453059999</v>
+        <v>7148652.650030001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>7843971.58768</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7951036.89242</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>9371827.66</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>917452.2231200001</v>
+        <v>917452.22312</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1146465.5541</v>
+        <v>1146491.1391</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1399851.7164</v>
+        <v>1399938.85958</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1631508.32822</v>
+        <v>1632184.85938</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1933212.13303</v>
+        <v>1935054.48509</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2335002.21083</v>
+        <v>2342769.01184</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2509937.29385</v>
+        <v>2634217.42284</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2424320.01955</v>
+        <v>2937528.46508</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>3490811.27782</v>
+        <v>3490811.277819999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3685532.86957</v>
+        <v>3701950.22037</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>4385063.19385</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4441579.37132</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>5235166.66</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>9795.365609999999</v>
@@ -1592,25 +1578,30 @@
         <v>27135.88745</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>26038.49152</v>
+        <v>26071.43835</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>24709.05128</v>
+        <v>32439.60885</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>38948.18701</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>51701.31862999999</v>
+        <v>51717.77183999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>71428.22598999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>71413.93526</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>95461.49099999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>431235.60173</v>
@@ -1619,115 +1610,130 @@
         <v>540851.66155</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>640681.4223</v>
+        <v>640681.48314</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>798817.4190799999</v>
+        <v>798821.40012</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>951346.2774</v>
+        <v>951520.7668700001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1192407.17403</v>
+        <v>1196274.0269</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1268720.55256</v>
+        <v>1347430.50546</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1142780.61457</v>
+        <v>1487957.77054</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>1851058.30733</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1746907.04431</v>
+        <v>1748739.80447</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2125198.43862</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2139798.8487</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2534086.045</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>476421.25578</v>
+        <v>476421.2557799999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>592592.22717</v>
+        <v>592617.81217</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>743856.5943299999</v>
+        <v>743943.6766700001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>815346.3038999998</v>
+        <v>816018.85402</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>961023.43602</v>
+        <v>962691.2986099999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1115459.14935</v>
+        <v>1119359.09749</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1215178.24977</v>
+        <v>1260715.47903</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1256830.3537</v>
+        <v>1417131.08569</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1600804.78348</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1886924.50663</v>
+        <v>1901492.64406</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2188436.52924</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2230366.58736</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2605619.124</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>741344.1819600001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>962191.28681</v>
+        <v>962191.70204</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1286157.27311</v>
+        <v>1286139.71183</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>992644.14062</v>
+        <v>992319.09144</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1387329.13604</v>
+        <v>1388282.58702</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1535867.47675</v>
+        <v>1536300.92833</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1817108.70936</v>
+        <v>1940272.55471</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2070885.01012</v>
+        <v>2311610.02585</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2382849.22061</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3460141.58349</v>
+        <v>3446702.42966</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3458908.39383</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3509457.5211</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>4136661</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>712741.61764</v>
@@ -1736,37 +1742,42 @@
         <v>723942.60382</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1652241.81912</v>
+        <v>1652746.62031</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1480896.29189</v>
+        <v>1481044.29601</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1410415.79122</v>
+        <v>1410860.23137</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1826828.04257</v>
+        <v>1827016.48554</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2221591.80429</v>
+        <v>2668804.47074</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1879568.99705</v>
+        <v>2914362.10649</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>3914047.62826</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>9115051.76908</v>
+        <v>9122948.841109999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>9544647.93709</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>9597360.535909997</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>11189167.799</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>8777.27838</v>
@@ -1778,7 +1789,7 @@
         <v>10060.09395</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>9910.770440000002</v>
+        <v>9910.77044</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>29565.10994</v>
@@ -1787,25 +1798,30 @@
         <v>13440.09849</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>6955.71451</v>
+        <v>24974.37851</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>14031.00792</v>
+        <v>14106.88698</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>20249.88334</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>70808.77382999999</v>
+        <v>70836.63252</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>82430.33581999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>82481.85382999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>106270.403</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>466.4528</v>
@@ -1826,10 +1842,10 @@
         <v>21356.81168</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>5458.54602</v>
+        <v>29168.43668</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>4972.416859999999</v>
+        <v>27444.1459</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>35347.61798</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>160726.89594</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>848491.764</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>89793.40599</v>
@@ -1856,73 +1877,83 @@
         <v>122602.12008</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>118165.79845</v>
+        <v>118311.37662</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>109093.51996</v>
+        <v>109094.43885</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>152183.12494</v>
+        <v>152219.86518</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>127951.69955</v>
+        <v>162453.10828</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>106578.31368</v>
+        <v>147347.95156</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>283805.3317</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>356712.81122</v>
+        <v>359258.7039</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>518237.6514</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>520927.70342</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>387146.327</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>5085.549199999999</v>
+        <v>5085.5492</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>5022.42764</v>
+        <v>5022.427640000001</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>7110.460889999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>5629.63163</v>
+        <v>5629.631630000001</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>7814.45675</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>9494.621630000001</v>
+        <v>9495.48459</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>15742.97633</v>
+        <v>15743.02633</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>4254.50698</v>
+        <v>23206.46807</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>22086.56688</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>21528.96949</v>
+        <v>21561.21417</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>44485.48395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>45602.13026</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>38337.71</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>15058.52971</v>
@@ -1931,37 +1962,42 @@
         <v>31653.51521</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>28183.54516</v>
+        <v>28687.96135</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>59498.11758000001</v>
+        <v>59498.11758</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>58443.31077</v>
+        <v>58722.35191</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>59539.85367</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>60216.80355</v>
+        <v>60285.8492</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>72931.20117</v>
+        <v>78486.51372999999</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>53183.1939</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>56800.35788</v>
+        <v>56836.67005000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>44448.35501000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>44670.43135</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>155702.598</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>32440.26148</v>
@@ -1982,25 +2018,30 @@
         <v>85443.51992999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>51963.21297</v>
+        <v>73469.52688999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>63725.89074</v>
+        <v>68037.73165999999</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>114708.27305</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>367562.38985</v>
+        <v>367884.02178</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>151711.35701</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>412780.597</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>453794.08682</v>
@@ -2015,31 +2056,36 @@
         <v>1134510.18076</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1018516.84093</v>
+        <v>1018657.7115</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1354340.90666</v>
+        <v>1354363.85648</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1778336.22416</v>
+        <v>2092839.53939</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1317379.33501</v>
+        <v>2224314.11794</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>3168422.41694</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>7994463.37346</v>
+        <v>7999138.94509</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>8273855.147910001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>8311323.3229</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>8891895.215</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>289.84052</v>
@@ -2051,7 +2097,7 @@
         <v>710.1392</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>70.65960000000001</v>
+        <v>70.6596</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>3840.18447</v>
@@ -2060,10 +2106,10 @@
         <v>12578.47912</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>10831.07105</v>
+        <v>11465.12693</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>11850.08206</v>
+        <v>14753.35345</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>11145.62049</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>17179.11654</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>11736.093</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>886.4789300000001</v>
@@ -2111,13 +2162,18 @@
         <v>64.12018</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>0.50191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.5019100000000001</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>202.741</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>106149.73381</v>
@@ -2126,43 +2182,48 @@
         <v>79295.50554000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>75156.167</v>
+        <v>75156.552</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>96206.38137999998</v>
+        <v>96208.80733</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>130285.54023</v>
+        <v>130309.14978</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>118378.54468</v>
+        <v>118506.43463</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>163990.80126</v>
+        <v>198260.72364</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>283845.95913</v>
+        <v>316664.6537</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>204702.27136</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>221320.22589</v>
+        <v>221577.78614</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>251573.0916</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>262737.22275</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>336604.351</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>563140.40037</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>591260.0297</v>
+        <v>591260.0297000001</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>1536088.4843</v>
@@ -2171,31 +2232,36 @@
         <v>1222151.50917</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1506992.39945</v>
+        <v>1507025.8151</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1672517.3476</v>
+        <v>1672697.68046</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2074644.45508</v>
+        <v>2592837.76132</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1699802.39817</v>
+        <v>2631279.87364</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>3613401.385350001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>9437664.023799999</v>
+        <v>9454904.57391</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>9504451.423289999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>9546140.427490002</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>10197462.321</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>6029.182739999999</v>
@@ -2210,37 +2276,42 @@
         <v>5787.959529999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>4534.3647</v>
+        <v>4534.37149</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4496.75772</v>
+        <v>4668.33704</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>4872.74783</v>
+        <v>5339.91051</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>6981.02024</v>
+        <v>7515.82389</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>6487.52474</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>38116.95890999999</v>
+        <v>38123.13025</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>22104.50323</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>22244.33633</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>22482.18</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>38524.65193</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>38552.79915</v>
+        <v>38552.79915000001</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>21091.99607</v>
@@ -2252,28 +2323,33 @@
         <v>44460.26663000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>44271.20081</v>
+        <v>44271.20080999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>66334.78488000001</v>
+        <v>67761.39782</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>64288.86369</v>
+        <v>73816.56009</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>82378.8615</v>
+        <v>82378.86149999998</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>148911.88686</v>
+        <v>149456.97384</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>177376.61611</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>177431.61014</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>112584.864</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>17164.54943</v>
@@ -2285,19 +2361,19 @@
         <v>17864.9609</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>59760.71806</v>
+        <v>59760.71805999999</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>30241.90164</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>62028.62466</v>
+        <v>62028.62465999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>22977.39642</v>
+        <v>37515.80637999999</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>58781.72020999999</v>
+        <v>58781.72021</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>35999.73534000001</v>
@@ -2306,13 +2382,18 @@
         <v>223846.24638</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>103393.61716</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>103520.28857</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>236452.769</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>439513.58398</v>
@@ -2327,31 +2408,36 @@
         <v>1108029.08024</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1385475.5131</v>
+        <v>1385508.92196</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1501232.65788</v>
+        <v>1501241.41142</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1929428.52798</v>
+        <v>2430962.19882</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1478367.10797</v>
+        <v>2391991.82072</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>3428008.45044</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>8927321.114159999</v>
+        <v>8942148.29221</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>9100476.416430002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>9141295.871409999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>9736573.184</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>576.1660899999999</v>
@@ -2375,7 +2461,7 @@
         <v>10493.2876</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>14265.11975</v>
+        <v>17508.07502</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>13149.16312</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>13806.2869</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>18398.134</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>1225.20243</v>
@@ -2402,7 +2493,7 @@
         <v>59.24448</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>2.939350000000001</v>
+        <v>2.93935</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>48.13924</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0.07343000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>2.212</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>60107.06376999999</v>
@@ -2447,28 +2543,33 @@
         <v>36891.59533</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>35288.36258000001</v>
+        <v>35288.36258</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>40522.20845000001</v>
+        <v>40749.65827</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>77118.1937</v>
+        <v>81665.50110000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>46714.32002</v>
+        <v>46714.32002000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>84109.09621999999</v>
+        <v>85971.20996000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>87293.91003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>87841.96071</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>70968.978</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>344237.73865</v>
@@ -2480,34 +2581,39 @@
         <v>726564.13452</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>468990.81914</v>
+        <v>469007.96485</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>601557.36698</v>
+        <v>602310.73048</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>691955.58261</v>
+        <v>693225.6525399999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>929322.4082000001</v>
+        <v>985161.2152100001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>872223.1998000001</v>
+        <v>1066057.78565</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1236085.66659</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1846947.38388</v>
+        <v>1849247.07538</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1824283.0869</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1836551.94227</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1667158.264</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>256117.55886</v>
@@ -2519,34 +2625,39 @@
         <v>360498.87251</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>434895.12368</v>
+        <v>434912.26939</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>516513.88851</v>
+        <v>517267.2520099999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>634150.3945000001</v>
+        <v>635207.55376</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>851359.1396100002</v>
+        <v>886741.8820099999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>804117.5152799999</v>
+        <v>969773.5508600001</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1028085.18952</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1645986.51424</v>
+        <v>1648280.36951</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1726685.12032</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1738808.13021</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1571846.306</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>88120.17979000001</v>
@@ -2555,115 +2666,130 @@
         <v>19425.52122</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>366065.2620100001</v>
+        <v>366065.26201</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>34095.69546</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>85043.47847</v>
+        <v>85043.47846999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>57805.18811</v>
+        <v>58018.09878000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>77963.26859000001</v>
+        <v>98419.33319999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>68105.68452</v>
+        <v>96284.23478999999</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>208000.47707</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>200960.86964</v>
+        <v>200966.70587</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>97597.96657999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>97743.81206</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>95311.958</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>546707.6605799999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>840403.9404</v>
+        <v>840404.35563</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>675746.47341</v>
+        <v>676233.71332</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>782398.1042000001</v>
+        <v>782203.9134300001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>689195.1608299999</v>
+        <v>689806.27281</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>998222.5891100002</v>
+        <v>997394.0808699999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1034733.65037</v>
+        <v>1031078.04892</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1378428.4092</v>
+        <v>1528634.47305</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1447409.79693</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1290581.94489</v>
+        <v>1265499.62148</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1674821.82073</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1724125.68725</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>3461208.214</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>58917.7334</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>81425.72211000002</v>
+        <v>81425.72211</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>132029.07514</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>126682.07843</v>
+        <v>126752.99689</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>148824.65047</v>
+        <v>149030.8329</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>252930.59261</v>
+        <v>253054.5769</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>241815.99148</v>
+        <v>246825.86119</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>313810.11281</v>
+        <v>400857.13068</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>282321.94155</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>508928.15256</v>
+        <v>520622.79449</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>541706.23531</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>554463.89115</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>595051.5209999999</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>3677.92094</v>
@@ -2678,31 +2804,36 @@
         <v>5923.07359</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2370.41241</v>
+        <v>2370.41242</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>16944.24035</v>
+        <v>16949.23132</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5082.890120000001</v>
+        <v>5244.17644</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2855.93063</v>
+        <v>5014.39788</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>5049.96042</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>7232.35691</v>
+        <v>7232.556710000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>5353.910370000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5354.160370000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5744.087</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>55239.81246</v>
@@ -2714,34 +2845,39 @@
         <v>130952.356</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>120759.00484</v>
+        <v>120829.9233</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>146454.23806</v>
+        <v>146660.42048</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>235986.35226</v>
+        <v>236105.34558</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>236733.10136</v>
+        <v>241581.68475</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>310954.18218</v>
+        <v>395842.7328</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>277271.98113</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>501695.79565</v>
+        <v>513390.23778</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>536352.3249400001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>549109.73078</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>589307.434</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>105711.52648</v>
@@ -2753,34 +2889,39 @@
         <v>351971.94931</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>295833.0993999999</v>
+        <v>295843.83835</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>319820.66752</v>
+        <v>319824.11869</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>394782.78351</v>
+        <v>395711.04924</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>256566.70686</v>
+        <v>262152.74973</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>619057.7052199999</v>
+        <v>669717.1518400001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>690573.07011</v>
+        <v>690573.0701099999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>569306.37628</v>
+        <v>590633.2136</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>941007.57583</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>947303.36125</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1034740.593</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>45119.14938</v>
@@ -2789,7 +2930,7 @@
         <v>67351.64162000001</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>52320.75045000001</v>
+        <v>52320.75045</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>64229.20787</v>
@@ -2801,31 +2942,36 @@
         <v>63304.24896</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>17271.4288</v>
+        <v>18290.39209</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>25092.78593</v>
+        <v>26374.03189</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>40770.02482999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>38521.91518</v>
+        <v>45556.49249</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>54238.17312</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>54339.70076</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>14107.169</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>9060.944150000003</v>
+        <v>9060.944150000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>44823.81484000001</v>
+        <v>44823.81484</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>41798.98153</v>
@@ -2834,184 +2980,207 @@
         <v>25195.17721</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>43792.47513000001</v>
+        <v>43792.47512999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>12961.76211</v>
+        <v>12961.87711</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>13738.23326</v>
+        <v>14081.66408</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>21298.90054</v>
+        <v>21860.68308</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>67563.32098999999</v>
+        <v>67563.32099000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>27885.47429</v>
+        <v>28955.30231</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>33861.33983999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>34240.04626</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>34822.84</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>51531.43295</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>98105.71565000001</v>
+        <v>98105.71565</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>257852.21733</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>206408.71432</v>
+        <v>206419.45327</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>238671.7991100001</v>
+        <v>238675.25028</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>318516.77244</v>
+        <v>319444.92317</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>225557.0448</v>
+        <v>229780.69356</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>572666.01875</v>
+        <v>621482.43687</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>582239.72429</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>502898.98681</v>
+        <v>516121.4187999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>852908.06287</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>858723.6142300001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>985810.584</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>499913.8675</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>711548.4904</v>
+        <v>711548.9056300001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>455803.59924</v>
+        <v>456290.83915</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>613247.08323</v>
+        <v>613113.07197</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>518199.14378</v>
+        <v>519012.98702</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>856370.39821</v>
+        <v>854737.60853</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1019982.93499</v>
+        <v>1015751.16038</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1073180.81679</v>
+        <v>1259774.45189</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1039158.66837</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1230203.72117</v>
+        <v>1195489.20237</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1275520.48021</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1331286.21715</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3021519.142</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>94437.58274000001</v>
+        <v>94437.58274</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>156276.88647</v>
+        <v>156276.96952</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>129568.21565</v>
+        <v>129568.51565</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>135440.83113</v>
+        <v>135447.55717</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>151934.62535</v>
+        <v>151998.87656</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>180446.28312</v>
+        <v>180564.42297</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>210683.22546</v>
+        <v>212372.58844</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>191440.2166</v>
+        <v>226185.22279</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>209512.08917</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>246495.61673</v>
+        <v>246918.05948</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>259841.62481</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>273135.3737</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>425132.811</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>405476.2847600001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>555271.60393</v>
+        <v>555271.93611</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>326235.38359</v>
+        <v>326722.3235</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>477806.2521</v>
+        <v>477665.5147999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>366264.5184299999</v>
+        <v>367014.1104600001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>675924.11509</v>
+        <v>674173.1855599999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>809299.70953</v>
+        <v>803378.5719399999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>881740.6001899998</v>
+        <v>1033589.2291</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>829646.5792</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>983708.1044399999</v>
+        <v>948571.14289</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1015678.8554</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1058150.84345</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2596386.331</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>4250</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>4557</v>
+        <v>4558</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>4824</v>
+        <v>4826</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4885</v>
+        <v>4890</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>5097</v>
+        <v>5115</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>5416</v>
+        <v>5439</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>5527</v>
+        <v>5588</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>5706</v>
+        <v>5846</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>6166</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>5650</v>
+        <v>6546</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>5787</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>6855</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>7288</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>